--- a/05_Entregable 3/maate_extra/DdV_19_MAATE_recopilacion_Retenciones.xlsx
+++ b/05_Entregable 3/maate_extra/DdV_19_MAATE_recopilacion_Retenciones.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Disco_F\!!Personal\Mio\1_WCS 2024\wcs\05_Entregable 3\maate_extra\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MAG\personal\consultorías\wcs\05_Entregable 3\maate_extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="7" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="10" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="causal_coid_coda_Recopilacion" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="389">
   <si>
     <t>causal_coid_coda</t>
   </si>
@@ -936,9 +936,6 @@
     <t>tremaructos ornatus</t>
   </si>
   <si>
-    <t>estado_especimen</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -1186,6 +1183,21 @@
   </si>
   <si>
     <t>Valdiviezo</t>
+  </si>
+  <si>
+    <t>No declarado</t>
+  </si>
+  <si>
+    <t>Categoría 2025</t>
+  </si>
+  <si>
+    <t>Perdido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Público </t>
+  </si>
+  <si>
+    <t>elemento_retenido</t>
   </si>
 </sst>
 </file>
@@ -1201,12 +1213,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1221,8 +1245,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1519,16 +1545,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1536,116 +1565,157 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12">
         <v>530</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>76</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -1656,106 +1726,128 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>342</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>343</v>
-      </c>
       <c r="B2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B3">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>344</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>345</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>346</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>347</v>
       </c>
       <c r="B7">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>347</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>348</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>349</v>
       </c>
       <c r="B9">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>349</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>350</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>351</v>
-      </c>
       <c r="B11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>622</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -1766,181 +1858,222 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="60.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>352</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>353</v>
       </c>
       <c r="B2">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>354</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>355</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B5">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B6">
         <v>413</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>357</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>358</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>359</v>
       </c>
       <c r="B8">
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B9">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>361</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>362</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>363</v>
       </c>
       <c r="B12">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>363</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>364</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>365</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>366</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>367</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>368</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>369</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>370</v>
       </c>
       <c r="B19">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>130</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -1951,125 +2084,155 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>372</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>373</v>
       </c>
       <c r="B2">
         <v>396</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B4">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>375</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>376</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>377</v>
       </c>
       <c r="B6">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>377</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>378</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>379</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>379</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>380</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>381</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>382</v>
       </c>
       <c r="B11">
         <v>47</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B12">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>164</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -2080,16 +2243,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -2097,68 +2262,91 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
       <c r="B2">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
       <c r="B4">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
       <c r="B5">
         <v>54</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>584</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -2169,16 +2357,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -2186,92 +2376,126 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
       <c r="B7">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
       <c r="B8">
         <v>74</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>33</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>585</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -2282,16 +2506,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -2299,44 +2525,62 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
       <c r="B2">
         <v>651</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>36</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>37</v>
       </c>
       <c r="B4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
       <c r="B5">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -4493,10 +4737,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4504,156 +4748,211 @@
     <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>301</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>302</v>
       </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>303</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>304</v>
       </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>305</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>306</v>
       </c>
       <c r="B6">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B7">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B8">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B9">
         <v>56</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B10">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B11">
         <v>309</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>311</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>312</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>313</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>314</v>
       </c>
       <c r="B14">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B15">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>315</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>316</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>317</v>
       </c>
       <c r="B17">
         <v>46</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>128</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -4664,125 +4963,145 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>319</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>320</v>
       </c>
       <c r="B2">
         <v>201</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>322</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>323</v>
       </c>
       <c r="B5">
         <v>75</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B6">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B7">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>325</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>326</v>
       </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>327</v>
       </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>328</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>329</v>
       </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>330</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>331</v>
-      </c>
       <c r="B13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>377</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -4793,109 +5112,145 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>332</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>333</v>
       </c>
       <c r="B2">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>334</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>335</v>
       </c>
       <c r="B4">
         <v>79</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B7">
         <v>97</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B8">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B9">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B10">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>427</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>

--- a/05_Entregable 3/maate_extra/DdV_19_MAATE_recopilacion_Retenciones.xlsx
+++ b/05_Entregable 3/maate_extra/DdV_19_MAATE_recopilacion_Retenciones.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="10" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="causal_coid_coda_Recopilacion" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,12 @@
     <sheet name="destino_final_Recopilacion" sheetId="11" r:id="rId11"/>
     <sheet name="tipo_proceso_Recopilacion" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="389">
   <si>
     <t>causal_coid_coda</t>
   </si>
@@ -2086,7 +2086,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -2591,16 +2591,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -2608,284 +2610,390 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>41</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>42</v>
       </c>
       <c r="B4">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>43</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
       <c r="B6">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>45</v>
       </c>
       <c r="B7">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>46</v>
       </c>
       <c r="B8">
         <v>177</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>47</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>48</v>
       </c>
       <c r="B10">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>49</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>50</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>51</v>
       </c>
       <c r="B13">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>52</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>53</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>54</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>55</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>56</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>57</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>58</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>59</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>60</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>61</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>62</v>
       </c>
       <c r="B24">
         <v>31</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>63</v>
       </c>
       <c r="B25">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>64</v>
       </c>
       <c r="B26">
         <v>130</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>65</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>66</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>67</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>68</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>69</v>
       </c>
       <c r="B31">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>70</v>
       </c>
       <c r="B32">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>71</v>
       </c>
       <c r="B33">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>72</v>
       </c>
       <c r="B34">
         <v>240</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>73</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>14</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -2898,7 +3006,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C228"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
